--- a/미래.xlsx
+++ b/미래.xlsx
@@ -28,7 +28,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="###,###,###,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +56,13 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,12 +97,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -105,9 +115,13 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -385,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -597,6 +611,64 @@
         <v>474996</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>2033</v>
+      </c>
+      <c r="B22" s="3">
+        <v>444367</v>
+      </c>
+      <c r="C22">
+        <v>474996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>2034</v>
+      </c>
+      <c r="B23" s="3">
+        <v>412429</v>
+      </c>
+      <c r="C23">
+        <v>474996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>2035</v>
+      </c>
+      <c r="B24" s="3">
+        <v>363250</v>
+      </c>
+      <c r="C24">
+        <v>474996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>2036</v>
+      </c>
+      <c r="B25" s="3">
+        <v>331606</v>
+      </c>
+      <c r="C25">
+        <v>474996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>2037</v>
+      </c>
+      <c r="B26" s="3">
+        <v>304651</v>
+      </c>
+      <c r="C26">
+        <v>474996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B27" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
